--- a/src/Users.xlsx
+++ b/src/Users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +47,6 @@
   </si>
   <si>
     <t>guet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ha123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +92,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -407,7 +399,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -435,8 +427,8 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+      <c r="B2" s="1">
+        <v>1111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -449,8 +441,8 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
+      <c r="B3" s="1">
+        <v>1234</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
